--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672276.9560882</v>
+        <v>1776456.590539271</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.64559995940316</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>168.7764507814094</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034764</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>40.87152028304761</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>98.48275147672763</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>293.2392394028592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.40282375493713</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>198.8473293407814</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>133.3353942071046</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>104.673726391937</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.880279655986366</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.27051608244977</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701382</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>95.12712756824257</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182014</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17.95257707284669</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576209</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3761590502148</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2390706773498</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>80.33989744909067</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>33.55293486399881</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381849</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576128</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>223.3486291137803</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701301</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093087</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784649</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>37.58623250008419</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560477</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>78.91051008678141</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>165.6720686991027</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>127.0078463455649</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3282.529458013814</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3282.529458013814</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3028.99898128765</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600383</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>570.3023580600383</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>422.3892644776452</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>275.4993169797348</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7964803544537</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1660.609998322719</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1302.344299715969</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>916.5560471177243</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>505.5701423281168</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,10 +4582,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.5194080306463</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219999</v>
+        <v>258.4497899404153</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219999</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4756,19 +4758,19 @@
         <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>528.3452334219999</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V7" t="n">
-        <v>528.3452334219999</v>
+        <v>440.098254770655</v>
       </c>
       <c r="W7" t="n">
-        <v>528.3452334219999</v>
+        <v>440.098254770655</v>
       </c>
       <c r="X7" t="n">
-        <v>528.3452334219999</v>
+        <v>440.098254770655</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.3452334219999</v>
+        <v>440.098254770655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1813.303537713133</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1455.037839106383</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1069.249586508138</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>658.263681718531</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>243.1912315635274</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3109.584116376734</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3109.584116376734</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3109.584116376734</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>71.44169184227067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>71.44169184227067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4960,52 +4962,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145375</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U10" t="n">
-        <v>218.331639340181</v>
+        <v>541.953681701357</v>
       </c>
       <c r="V10" t="n">
-        <v>218.331639340181</v>
+        <v>541.953681701357</v>
       </c>
       <c r="W10" t="n">
-        <v>218.331639340181</v>
+        <v>541.953681701357</v>
       </c>
       <c r="X10" t="n">
-        <v>218.331639340181</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.331639340181</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273917</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>634.5603720565513</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913855</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>801.6918836312008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7557007032939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909692</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
         <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>983.3403484614405</v>
       </c>
     </row>
     <row r="14">
@@ -5270,49 +5272,49 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852261</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398599</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5343,40 +5345,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273923</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803942</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803942</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>740.5562989961534</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1337.934786622706</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972545</v>
+        <v>1344.266747951536</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211832</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511872</v>
+        <v>806.8386896933888</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232803</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232803</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408872</v>
+        <v>489.9894131830888</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797199</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797753</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1713.444758237565</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1458.760270031678</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1169.343099994717</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.343099994717</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511872</v>
+        <v>988.4871545236285</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913855</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.29660558528</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080348</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>2680.685310603266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229818</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,10 +6499,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6528,37 +6530,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2253.988764961265</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782847</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038232</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797632</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910798</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570806</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279791</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853349</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580248</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832651</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487555</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487555</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831753</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797177</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192578</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398589</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492573</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474779</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466569</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273889</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280601</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280601</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438185</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438185</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.6725264685178</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.736343540611</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987576</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615662</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334535</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673284</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667828</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694713</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740621</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385788</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590555</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590555</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761775</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2567.280686761775</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>2854.440648734747</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>3482.038612289353</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>4033.94834252864</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023708</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301202</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022976</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566161</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334419</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606217</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400684</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.38631463573</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>800.5007694647259</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>800.5007694647259</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>650.3841300523901</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>502.471036469997</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>355.5810889720866</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579361</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373474</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1430.931364336513</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1202.941813438496</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>982.1492342949656</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398588</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492573</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474778</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466568</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122997</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852883</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591803</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273885</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803933</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516136</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721978</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961265</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.15997273278</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2897.617548589219</v>
+        <v>3026.711098656038</v>
       </c>
       <c r="C40" t="n">
-        <v>2728.681365661312</v>
+        <v>3026.711098656038</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661312</v>
+        <v>2876.594459243702</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661312</v>
+        <v>2728.681365661309</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>2728.681365661309</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376189</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218387</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866301</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296625</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822163</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998103</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729137</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.430181389145</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.95946209813</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671689</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398588</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.78744865099</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.932614305894</v>
       </c>
       <c r="T40" t="n">
-        <v>4361.225028359655</v>
+        <v>4221.331149328836</v>
       </c>
       <c r="U40" t="n">
-        <v>4072.149801703853</v>
+        <v>3932.255922673034</v>
       </c>
       <c r="V40" t="n">
-        <v>3817.465313497966</v>
+        <v>3764.910398734546</v>
       </c>
       <c r="W40" t="n">
-        <v>3528.048143461006</v>
+        <v>3475.493228697585</v>
       </c>
       <c r="X40" t="n">
-        <v>3300.058592562988</v>
+        <v>3247.503677799568</v>
       </c>
       <c r="Y40" t="n">
-        <v>3079.266013419458</v>
+        <v>3026.711098656038</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921482</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>3314.305816915985</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>3941.903780470592</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1932606498908</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2801670674977</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3902195695873</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1941202844673</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.11969353038526</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.4813855737225</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>24.80831533902932</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>64.34558267474495</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>205.8445769401535</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>32.89260457060011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.7894017452187</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>28.7890142100477</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>191.8807364711639</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>127.9379057921847</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>86.46557462472535</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>13.28686650065895</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920648</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920643</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907546</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.700646165176294e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
         <v>93596.7441040525</v>
@@ -26439,19 +26441,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189219</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189216</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189224</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26494,16 +26496,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346468</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929457</v>
+        <v>352672.5099929458</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="E6" t="n">
-        <v>102242.3791875995</v>
+        <v>102242.3791875994</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.8409949552</v>
+        <v>427654.840994955</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.8409949549</v>
+        <v>427654.8409949559</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.840994955</v>
+        <v>427654.8409949546</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949549</v>
+        <v>427654.8409949547</v>
       </c>
       <c r="J6" t="n">
-        <v>210123.6385976777</v>
+        <v>210123.6385976774</v>
       </c>
       <c r="K6" t="n">
-        <v>427654.8409949552</v>
+        <v>427654.8409949555</v>
       </c>
       <c r="L6" t="n">
+        <v>427654.8409949547</v>
+      </c>
+      <c r="M6" t="n">
+        <v>342599.8130594428</v>
+      </c>
+      <c r="N6" t="n">
         <v>427654.8409949546</v>
       </c>
-      <c r="M6" t="n">
-        <v>342599.8130594432</v>
-      </c>
-      <c r="N6" t="n">
-        <v>427654.8409949549</v>
-      </c>
       <c r="O6" t="n">
-        <v>427654.8409949552</v>
+        <v>427654.8409949541</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949548</v>
+        <v>427654.8409949547</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26762,16 +26764,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26799,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-3.44074661859819e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.54216182877268</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>200.9546498970596</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>103.8834946312732</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4966259053226</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>312.4389741767258</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.99869925319439</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>125.8439973436907</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>87.36450886483144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>161.2723701802159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>146.321445566965</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>139.8747352583344</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.4391393065874</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2.867089739642312e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28251,7 +28253,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.093477900819077e-11</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -29278,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29691,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-9.509180969813671e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29806,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>5.854872142663226e-12</v>
       </c>
     </row>
     <row r="39">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>531.8166820790229</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>742.9354859824761</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>137.7376326175054</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437249</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171886</v>
+        <v>561.8765786214702</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.2560498238267</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32566,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>441.0292693655508</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>659.9976957396707</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L30" t="n">
-        <v>476.0648089385468</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502032</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>216.8572963387083</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>432.1946015714848</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634843</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135337</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806723</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162555</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175669</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460021</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669218</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043723</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651526</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659447</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521098</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007748</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473069</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071779</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437238</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502041</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485288</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418559</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742435</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121568</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869269</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392042</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417312</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532763</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099321</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467221</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756945</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>393.2623022991487</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991428</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600775</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>6.395920534172124</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028583389</v>
+        <v>427.90217120714</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625078</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010454</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899078</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.2742757378053</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>302.4748895856766</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5104291586726</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587295</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294235</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>90.0196696720416</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>290.0605676494665</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317114</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462683</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902942</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193509</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243154</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924723</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774844</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674327</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238447</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992794</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587387</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789196</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010448</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060451</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125009</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776456.590539271</v>
+        <v>1772443.980525277</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>399.1094057817443</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.7764507814094</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>94.57983363107971</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>22.15546799834686</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>98.48275147672763</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>41.40282375493713</v>
+        <v>160.891508621518</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>133.3353942071046</v>
+        <v>260.8536857590177</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.27051608244977</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182014</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>17.95257707284669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022936</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756194</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576209</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2390706773498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.14967908986335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>114.2821160880066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>104.4564809702492</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>33.55293486399881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.4774956074563874</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>16.92025364381849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576128</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>223.3486291137803</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701301</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.70391688093087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>37.58623250008419</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560477</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>165.6720686991027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>127.0078463455649</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1606.007586892753</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1220.219334294509</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>809.2334295049013</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.572515263131</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1660.609998322719</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.344299715969</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>916.5560471177243</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>505.5701423281168</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263131</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>258.4497899404153</v>
+        <v>229.0287918074542</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>440.098254770655</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>440.098254770655</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>440.098254770655</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X7" t="n">
-        <v>440.098254770655</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y7" t="n">
-        <v>440.098254770655</v>
+        <v>410.6772566376939</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2182.266054653545</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C8" t="n">
-        <v>1813.303537713133</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D8" t="n">
-        <v>1455.037839106383</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="E8" t="n">
-        <v>1069.249586508138</v>
+        <v>752.0186388101456</v>
       </c>
       <c r="F8" t="n">
-        <v>658.263681718531</v>
+        <v>341.032734020538</v>
       </c>
       <c r="G8" t="n">
-        <v>243.1912315635274</v>
+        <v>330.0006879059386</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653545</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>541.953681701357</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>541.953681701357</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>541.953681701357</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273917</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803941</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803941</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836312008</v>
+        <v>874.8686257536428</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032939</v>
+        <v>705.932442825736</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909692</v>
+        <v>555.8158034134002</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310071</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258108</v>
+        <v>2338.476105524079</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2049.400878868277</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396419</v>
+        <v>1794.71639066239</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359458</v>
+        <v>1505.29922062543</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614405</v>
+        <v>1277.309669727412</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614405</v>
+        <v>1056.517090583882</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797199</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852261</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398599</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,40 +5342,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273923</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803942</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803942</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961534</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622706</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951536</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933888</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654819</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654819</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830888</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797753</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236285</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5606,13 +5606,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
         <v>530.3315352860773</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.030966681951</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.176132336855</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.574667359796</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6530,40 +6530,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527389</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167372</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961265</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782847</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038232</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797632</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910798</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570806</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279791</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853349</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580248</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832651</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487555</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487555</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831753</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797177</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192578</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273889</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280601</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280601</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998425</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685178</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.736343540611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797179</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797179</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797179</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987576</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615662</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334535</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673284</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667828</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694713</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740621</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385788</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590555</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.355914590555</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2567.280686761775</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2567.280686761775</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.440648734747</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289353</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.94834252864</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023708</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301202</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022976</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566161</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334419</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606217</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400684</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.38631463573</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647259</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>800.5007694647259</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>650.3841300523901</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>502.471036469997</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>355.5810889720866</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235163</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579361</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373474</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336513</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949656</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398588</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474778</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466568</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612122997</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852883</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591803</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273885</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803933</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516136</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167372</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721978</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961265</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.15997273278</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3026.711098656038</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656038</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243702</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661309</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661309</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296625</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822163</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998103</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729137</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389145</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.95946209813</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671689</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398588</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.78744865099</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328836</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673034</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3764.910398734546</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3475.493228697585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3247.503677799568</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3026.711098656038</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2716.927329289434</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3314.305816915985</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>3941.903780470592</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>916.3099000622266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>766.1932606498908</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>618.2801670674977</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>471.3902195695873</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>304.1941202844673</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.4813855737225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516689</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34558267474495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.65245098079509</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.727993418995</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.1071577446384</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>28.7890142100477</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.8807364711639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>127.9379057921847</v>
+        <v>39.70888054695396</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>86.46557462472535</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>13.28686650065895</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920648</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882931.1937920642</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882931.1937920643</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907546</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.700646165176294e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26441,19 +26441,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189219</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189216</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189224</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26496,16 +26496,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346467</v>
+        <v>-976072.235734647</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929455</v>
       </c>
       <c r="E6" t="n">
-        <v>102242.3791875994</v>
+        <v>101894.9999332431</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.840994955</v>
+        <v>427307.4617405977</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.8409949559</v>
+        <v>427307.461740598</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.461740598</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949547</v>
+        <v>427307.4617405978</v>
       </c>
       <c r="J6" t="n">
-        <v>210123.6385976774</v>
+        <v>209776.2593433202</v>
       </c>
       <c r="K6" t="n">
-        <v>427654.8409949555</v>
+        <v>427307.4617405976</v>
       </c>
       <c r="L6" t="n">
-        <v>427654.8409949547</v>
+        <v>427307.4617405976</v>
       </c>
       <c r="M6" t="n">
-        <v>342599.8130594428</v>
+        <v>342252.4338050862</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.4617405981</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949541</v>
+        <v>427307.4617405977</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949547</v>
+        <v>427307.461740598</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26764,16 +26764,16 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.44074661859819e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.81231987170918</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>200.9546498970596</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.66698746754813</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>146.4966259053226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>360.5783736651337</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>312.4389741767258</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>125.8439973436907</v>
+        <v>6.355312477109806</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>161.2723701802159</v>
+        <v>33.75407862830281</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>153.4391393065874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.867089739642312e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28253,13 +28253,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.093477900819077e-11</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.509180969813671e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>4.831690603168681e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.854872142663226e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>531.8166820790229</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485293</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418562</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862127</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7376326175054</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437249</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485293</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>659.9976957396707</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502032</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>216.8572963387083</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>432.1946015714848</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.49939899634843</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135337</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806723</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162555</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175669</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460021</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669218</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043723</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651526</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659447</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521098</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007748</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473069</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071779</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437238</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502041</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485288</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418559</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742435</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121568</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869269</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392042</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417312</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532763</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099321</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467221</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>198.5607970756945</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435946</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774986</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>393.2623022991487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789222</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600775</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641945</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>6.395920534172124</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992804</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.90217120714</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625078</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>528.6559836563374</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587295</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294235</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>90.0196696720416</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0605676494665</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317114</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462683</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902942</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193509</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243154</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924723</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774844</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674327</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238447</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992794</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587387</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789196</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096347</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010448</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060451</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>55.96455263125009</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991502</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772443.980525277</v>
+        <v>1774204.510828063</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>399.1094057817443</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>245.2748112147371</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189216</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>37.67709528776586</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.15546799834686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>31.84538444784435</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.891508621518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222588</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>260.8536857590177</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022936</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756194</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>90.48716302792783</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.72279572932659</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>104.4564809702492</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4774956074563874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456743</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453149</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.1527559011482</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>14.73874327217517</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.273285499504</v>
+        <v>2295.336172843073</v>
       </c>
       <c r="C2" t="n">
-        <v>1964.273285499504</v>
+        <v>1926.373655902661</v>
       </c>
       <c r="D2" t="n">
-        <v>1606.007586892753</v>
+        <v>1568.107957295911</v>
       </c>
       <c r="E2" t="n">
-        <v>1220.219334294509</v>
+        <v>1182.319704697666</v>
       </c>
       <c r="F2" t="n">
-        <v>809.2334295049013</v>
+        <v>771.3337999080588</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>356.2613497530553</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="Y2" t="n">
-        <v>2350.873125563625</v>
+        <v>2681.936012907195</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>937.4502275783891</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>551.6619749801448</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>140.6760701905372</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4594,25 +4594,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278356</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2367.546699278356</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,13 +4664,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.0287918074542</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
         <v>66.5121164321834</v>
@@ -4725,52 +4725,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X7" t="n">
-        <v>631.469835781224</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.6772566376939</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.07259001514</v>
+        <v>1122.606831754059</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.80689140839</v>
+        <v>764.3411331473087</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101456</v>
+        <v>378.5528805490645</v>
       </c>
       <c r="F8" t="n">
-        <v>341.032734020538</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>330.0006879059386</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2268.308520734404</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158128</v>
@@ -4895,10 +4895,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4944,67 +4944,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536428</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>705.932442825736</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034134002</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310071</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524079</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868277</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.71639066239</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.29922062543</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727412</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583882</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,16 +5360,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.238542663355</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.030966681951</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.176132336855</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2023.574667359796</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.499440703994</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6636,37 +6636,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7265,10 +7265,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>108.7042825148155</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7839,19 +7839,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516689</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.257951202385321</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.65245098079509</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.1071577446384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.2652634529535</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695396</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>66.09406519747967</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920642</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="14">
@@ -26319,43 +26319,43 @@
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26432,10 +26432,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26450,7 +26450,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.235734647</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929451</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929455</v>
+        <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>101894.9999332431</v>
+        <v>102207.6412621638</v>
       </c>
       <c r="F6" t="n">
-        <v>427307.4617405977</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="G6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.103069519</v>
       </c>
       <c r="H6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.103069519</v>
       </c>
       <c r="I6" t="n">
-        <v>427307.4617405978</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="J6" t="n">
-        <v>209776.2593433202</v>
+        <v>210088.9006722418</v>
       </c>
       <c r="K6" t="n">
-        <v>427307.4617405976</v>
+        <v>427620.1030695192</v>
       </c>
       <c r="L6" t="n">
-        <v>427307.4617405976</v>
+        <v>427620.103069519</v>
       </c>
       <c r="M6" t="n">
-        <v>342252.4338050862</v>
+        <v>342565.0751340072</v>
       </c>
       <c r="N6" t="n">
-        <v>427307.4617405981</v>
+        <v>427620.1030695189</v>
       </c>
       <c r="O6" t="n">
-        <v>427307.4617405977</v>
+        <v>427620.1030695188</v>
       </c>
       <c r="P6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.103069519</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.81231987170918</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.33295317258339</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754813</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>180.9075580643289</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>360.5783736651337</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>379.0763412056091</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.355312477109806</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194526</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>33.75407862830281</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-2.53354608527818e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34216,13 +34216,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>615.038144437878</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37004,7 +37004,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>472.9041105158597</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
